--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632505.975535203</v>
+        <v>2630093.063029399</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10689347.14596503</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8825423.060220767</v>
+        <v>8825423.060220765</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>195.2590144254298</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>300.0425700028448</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,19 +1607,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>307.2654071077715</v>
       </c>
       <c r="F14" t="n">
-        <v>251.1546325535075</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,16 +1771,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
         <v>49.37728379124555</v>
@@ -1813,7 +1813,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>244.7592402314915</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286721</v>
@@ -1850,7 +1850,7 @@
         <v>286.4588952783475</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299263</v>
       </c>
       <c r="F17" t="n">
         <v>338.651899399376</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584042</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T17" t="n">
-        <v>65.94336870763001</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X17" t="n">
         <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396018</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629243</v>
+        <v>99.02267475629237</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587695</v>
+        <v>80.3913266758769</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423377</v>
+        <v>78.20981630423371</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059584</v>
+        <v>77.19690168059579</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669282</v>
+        <v>97.80166191669277</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198538</v>
+        <v>76.53086857198532</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750268</v>
+        <v>28.12827406750264</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771191</v>
+        <v>20.70800632771187</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891064</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338337</v>
       </c>
       <c r="U19" t="n">
         <v>217.9876918632774</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814925</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942555</v>
       </c>
       <c r="X19" t="n">
         <v>157.4855090467017</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211451</v>
       </c>
       <c r="C20" t="n">
         <v>297.0487454286721</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783475</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>187.7170846075009</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G20" t="n">
         <v>342.697579311118</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584045</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T20" t="n">
-        <v>61.89768879588786</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X20" t="n">
         <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396018</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629243</v>
+        <v>99.02267475629237</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587695</v>
+        <v>80.3913266758769</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423377</v>
+        <v>78.20981630423371</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059584</v>
+        <v>77.19690168059579</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669282</v>
+        <v>97.80166191669277</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198538</v>
+        <v>76.53086857198532</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750269</v>
+        <v>28.12827406750264</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771193</v>
+        <v>20.70800632771187</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891064</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338337</v>
       </c>
       <c r="U22" t="n">
         <v>217.9876918632774</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814925</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942555</v>
       </c>
       <c r="X22" t="n">
         <v>157.4855090467017</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211451</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299263</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584045</v>
+        <v>40.96361544584039</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165665</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6078338396019</v>
+        <v>111.6078338396018</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629246</v>
+        <v>99.02267475629237</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587698</v>
+        <v>80.3913266758769</v>
       </c>
       <c r="E25" t="n">
-        <v>78.2098163042338</v>
+        <v>78.20981630423371</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059587</v>
+        <v>77.19690168059579</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669285</v>
+        <v>97.80166191669277</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198541</v>
+        <v>76.53086857198532</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750272</v>
+        <v>28.12827406750264</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771196</v>
+        <v>20.70800632771187</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891064</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338337</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814925</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942555</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.3541982182262</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>171.859438946441</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.503041560071</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383249</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349168</v>
+        <v>69.56210087052303</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846436</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482644</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092342</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621585</v>
+        <v>99.36210032693285</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957232</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>310.7752483302254</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
         <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>268.0659743183113</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G41" t="n">
         <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651741</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492064</v>
+        <v>37.22916845492068</v>
       </c>
       <c r="T41" t="n">
         <v>131.959376806365</v>
@@ -3797,7 +3797,7 @@
         <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368797</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
         <v>277.2823753841578</v>
@@ -3806,7 +3806,7 @@
         <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537264</v>
+        <v>95.28822776537268</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495716</v>
+        <v>76.6568796849572</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331398</v>
+        <v>74.47536931331402</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967605</v>
+        <v>73.46245468967609</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577303</v>
+        <v>94.06721492577307</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106559</v>
+        <v>72.79642158106563</v>
       </c>
       <c r="I43" t="n">
-        <v>24.3938270765829</v>
+        <v>24.39382707658294</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679214</v>
+        <v>16.97355933679218</v>
       </c>
       <c r="S43" t="n">
         <v>117.8104319981867</v>
@@ -3952,10 +3952,10 @@
         <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>245.6659011078998</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905728</v>
+        <v>211.5917062261138</v>
       </c>
       <c r="W43" t="n">
         <v>214.5644050033358</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>243.9237702400797</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>282.7244482874278</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>139.7657699103269</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492063</v>
+        <v>37.22916845492068</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
@@ -4034,16 +4034,16 @@
         <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368797</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537264</v>
+        <v>95.28822776537268</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495716</v>
+        <v>76.6568796849572</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331398</v>
+        <v>74.47536931331402</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967605</v>
+        <v>73.46245468967609</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577303</v>
+        <v>94.06721492577307</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106559</v>
+        <v>72.79642158106563</v>
       </c>
       <c r="I46" t="n">
-        <v>24.3938270765829</v>
+        <v>24.39382707658294</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679214</v>
+        <v>16.97355933679218</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981867</v>
+        <v>149.2230882337277</v>
       </c>
       <c r="T46" t="n">
         <v>147.590355942914</v>
@@ -4198,7 +4198,7 @@
         <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
-        <v>185.163718291324</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y46" t="n">
         <v>146.6260600188396</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1983.207425608</v>
+        <v>1644.05721849195</v>
       </c>
       <c r="C11" t="n">
-        <v>1661.694541615661</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1350.878475956984</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5185,7 +5185,7 @@
         <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5194,16 +5194,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1570.289398767135</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1248.776514774797</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D14" t="n">
-        <v>937.9604491161191</v>
+        <v>990.5514538055354</v>
       </c>
       <c r="E14" t="n">
-        <v>937.9604491161191</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3167.077706941467</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2883.464452545969</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2578.145430223929</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2252.129304910922</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1909.439605883184</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,7 +5373,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328085</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1543.53169409007</v>
+        <v>1543.531694090069</v>
       </c>
       <c r="C17" t="n">
-        <v>1243.482456283331</v>
+        <v>1243.48245628333</v>
       </c>
       <c r="D17" t="n">
-        <v>954.1300368102526</v>
+        <v>954.1300368102513</v>
       </c>
       <c r="E17" t="n">
-        <v>637.2550633456805</v>
+        <v>637.2550633456792</v>
       </c>
       <c r="F17" t="n">
         <v>295.1824376897441</v>
@@ -5513,28 +5513,28 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609172</v>
@@ -5543,22 +5543,22 @@
         <v>3284.22843226994</v>
       </c>
       <c r="T17" t="n">
-        <v>3217.618968928899</v>
+        <v>3147.163963787834</v>
       </c>
       <c r="U17" t="n">
-        <v>3033.001771336408</v>
+        <v>2962.546766195342</v>
       </c>
       <c r="V17" t="n">
-        <v>2770.852163126509</v>
+        <v>2700.397157985444</v>
       </c>
       <c r="W17" t="n">
-        <v>2486.996786990068</v>
+        <v>2416.541781849002</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.44430786266</v>
+        <v>2111.989302721594</v>
       </c>
       <c r="Y17" t="n">
-        <v>1861.21825502052</v>
+        <v>1790.763249879454</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5613,7 +5613,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125857</v>
@@ -5622,16 +5622,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061026</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118678</v>
+        <v>509.1978227118674</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332042</v>
+        <v>427.9944624332039</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844832</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F19" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016595</v>
+        <v>94.92451448016591</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218345</v>
@@ -5674,49 +5674,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.2466748776664</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>660.8064733261626</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.963518925712</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631577</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.70149455199</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.308994985649</v>
+        <v>1878.308994985648</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138163</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029363</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W19" t="n">
         <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125281</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026701</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1547.618239455467</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.569001648727</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D20" t="n">
-        <v>958.2165821756487</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="E20" t="n">
-        <v>641.3416087110752</v>
+        <v>983.4142343670105</v>
       </c>
       <c r="F20" t="n">
         <v>641.3416087110752</v>
@@ -5744,58 +5744,58 @@
         <v>295.1824376897439</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.22843226994</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
-        <v>3221.705514294295</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3037.088316701804</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2774.938708491905</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2491.083332355463</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2186.530853228056</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.304800385916</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061026</v>
+        <v>609.2207265061022</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118678</v>
+        <v>509.1978227118674</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332042</v>
+        <v>427.9944624332039</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844832</v>
+        <v>348.994647984483</v>
       </c>
       <c r="F22" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202448</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286361</v>
+        <v>172.2284221286359</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016597</v>
+        <v>94.92451448016588</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>140.2594919287895</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>344.2466748776658</v>
       </c>
       <c r="L22" t="n">
-        <v>660.8064733261629</v>
+        <v>660.8064733261619</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.963518925712</v>
+        <v>1004.963518925711</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631577</v>
+        <v>1346.371895631576</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.70149455199</v>
+        <v>1645.701494551989</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985649</v>
+        <v>1878.308994985648</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138163</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029363</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989862</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.37617169306</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952376</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880161</v>
       </c>
       <c r="W22" t="n">
         <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125281</v>
+        <v>873.8352122125277</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026701</v>
+        <v>721.9559122026698</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430425</v>
+        <v>1598.143957430424</v>
       </c>
       <c r="D23" t="n">
         <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927738</v>
+        <v>991.9165644927737</v>
       </c>
       <c r="F23" t="n">
         <v>649.8439388368383</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
         <v>75.01444655794663</v>
@@ -5987,52 +5987,52 @@
         <v>75.01444655794663</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>431.2992265373251</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6169096522716</v>
+        <v>765.1186002271716</v>
       </c>
       <c r="L23" t="n">
-        <v>1369.651122900681</v>
+        <v>1216.15281347558</v>
       </c>
       <c r="M23" t="n">
-        <v>1903.183027572605</v>
+        <v>1749.684718147505</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348332</v>
+        <v>2480.612806674078</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227668</v>
+        <v>2983.585277553415</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584847</v>
+        <v>3378.359643910594</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340529</v>
+        <v>3626.646005666276</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897331</v>
       </c>
       <c r="S23" t="n">
         <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075992</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483501</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273603</v>
+        <v>3125.513664273602</v>
       </c>
       <c r="W23" t="n">
         <v>2841.658288137161</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009754</v>
+        <v>2537.105809009753</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167614</v>
+        <v>2215.879756167613</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318659</v>
+        <v>617.7230566318655</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376311</v>
+        <v>517.7001528376308</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589675</v>
+        <v>436.4967925589672</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102465</v>
+        <v>357.4969781102462</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460083</v>
+        <v>279.520309746008</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543993</v>
+        <v>180.7307522543991</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.4268446059291</v>
       </c>
       <c r="I25" t="n">
         <v>75.01444655794663</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048822</v>
+        <v>148.7618220545524</v>
       </c>
       <c r="K25" t="n">
-        <v>352.7490050034303</v>
+        <v>352.7490050034287</v>
       </c>
       <c r="L25" t="n">
-        <v>669.3088034519265</v>
+        <v>669.3088034519249</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051476</v>
+        <v>1013.465849051474</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.87422575734</v>
+        <v>1354.874225757339</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1654.203824677752</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111413</v>
+        <v>1886.811325111411</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.421621263926</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155128</v>
+        <v>1943.504443155126</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115626</v>
+        <v>1820.731838115625</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818824</v>
+        <v>1667.878501818823</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.68891407814</v>
+        <v>1447.688914078139</v>
       </c>
       <c r="V25" t="n">
         <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382915</v>
+        <v>882.3375423382909</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284335</v>
+        <v>730.458242328433</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1635.769886219269</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2169.301790891193</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2716.080607949976</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3219.053078829313</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P26" t="n">
-        <v>3613.827445186491</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257049</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191385</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643402</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>937.3106675423214</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1388.34488079073</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561918</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6494,10 +6494,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,52 +6619,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960318</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973148</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982178</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1543.189242259776</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.7211469317</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2623.499963990483</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O32" t="n">
-        <v>3126.47243486982</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P32" t="n">
-        <v>3521.246801226998</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,22 +6886,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464984</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,19 +6935,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6965,22 +6965,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647792</v>
+        <v>500.9308303909362</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368724</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388409</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953107</v>
+        <v>583.9078606473325</v>
       </c>
     </row>
     <row r="38">
@@ -7157,67 +7157,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389145</v>
+        <v>651.076513270285</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107157</v>
+        <v>580.8117649162214</v>
       </c>
       <c r="D40" t="n">
-        <v>379.22087719838</v>
+        <v>430.6951255038856</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898302</v>
+        <v>381.4534664953358</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>333.2349535712686</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>264.2035515198309</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>985.4928044205424</v>
       </c>
       <c r="X40" t="n">
-        <v>946.005145338841</v>
+        <v>856.1746880963683</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691542</v>
+        <v>734.0535435266814</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1503.254038370577</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C41" t="n">
-        <v>1503.254038370577</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1217.673787575196</v>
+        <v>921.3967184461518</v>
       </c>
       <c r="E41" t="n">
-        <v>904.5709827883204</v>
+        <v>921.3967184461518</v>
       </c>
       <c r="F41" t="n">
-        <v>633.797271355682</v>
+        <v>583.0962614679131</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242784</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T41" t="n">
-        <v>3154.708301143226</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U41" t="n">
-        <v>2973.863272228431</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>2715.485832696229</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.402625237484</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2134.622314787773</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y41" t="n">
-        <v>1817.16843062333</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622252</v>
+        <v>582.8155457622256</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456875</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447206</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736963</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871548</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732426</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246918</v>
+        <v>91.15234580246923</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,7 +7591,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.14953865739</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
         <v>1791.149102295585</v>
@@ -7600,19 +7600,19 @@
         <v>1642.06793467648</v>
       </c>
       <c r="U43" t="n">
-        <v>1393.920559820015</v>
+        <v>1425.650515613492</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.921519425497</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999056</v>
+        <v>995.1897971999064</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132572</v>
+        <v>839.8856941132578</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.778562781096</v>
+        <v>691.7785627810965</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1783.337245829323</v>
+        <v>1570.780783916178</v>
       </c>
       <c r="C44" t="n">
-        <v>1487.060176700281</v>
+        <v>1570.780783916178</v>
       </c>
       <c r="D44" t="n">
-        <v>1201.479925904899</v>
+        <v>1285.200533120796</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3771211180236</v>
+        <v>972.0977283339208</v>
       </c>
       <c r="F44" t="n">
-        <v>550.076664139785</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G44" t="n">
-        <v>207.68966179615</v>
+        <v>291.4102690120474</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,7 +7646,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7655,7 +7655,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7676,22 +7676,22 @@
         <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143226</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.863272228432</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.48583269623</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W44" t="n">
-        <v>2715.48583269623</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X44" t="n">
-        <v>2414.705522246519</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y44" t="n">
-        <v>2097.251638082076</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7701,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622252</v>
+        <v>582.8155457622256</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456871</v>
+        <v>486.5648106456875</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447203</v>
+        <v>409.1336190447206</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736961</v>
+        <v>333.9059732736963</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871546</v>
+        <v>259.7014735871548</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732426</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246918</v>
+        <v>91.15234580246923</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.14953865739</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.419146502109</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883004</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999064</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132572</v>
+        <v>839.8856941132578</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.778562781096</v>
+        <v>691.7785627810965</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331818</v>
+        <v>161.2833466331815</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772623</v>
+        <v>190.470899677262</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114949</v>
+        <v>199.0214867114944</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499982</v>
+        <v>189.4604205499978</v>
       </c>
       <c r="N8" t="n">
-        <v>187.865675725397</v>
+        <v>187.8656757253965</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001317</v>
+        <v>190.8661912001312</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610391</v>
+        <v>197.7493741610387</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168191</v>
+        <v>197.1608845168188</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723707</v>
+        <v>115.0671825723705</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484551</v>
+        <v>117.7238752484548</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888327</v>
+        <v>111.5038326888324</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586517</v>
+        <v>110.5673213586513</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809911</v>
+        <v>98.93952256809871</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195535</v>
+        <v>112.9545713195531</v>
       </c>
       <c r="P9" t="n">
-        <v>110.184351475541</v>
+        <v>110.1843514755407</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137829</v>
+        <v>124.0787517137827</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747622</v>
+        <v>119.356265474762</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960294</v>
+        <v>122.5532519960292</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290578</v>
+        <v>111.7023147290576</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297876</v>
+        <v>123.6934388297874</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182097</v>
+        <v>125.0956219182096</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>96.67698759287271</v>
+        <v>186.0093651189809</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>287.0017854473908</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5908801368514</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>167.7369666428357</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>274.8351763665423</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.3902622431539</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.0387407269852</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.91266345082443</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>27.68982634589767</v>
       </c>
       <c r="F14" t="n">
-        <v>108.7462765696114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958345</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>69.7504550896536</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>69.75045508965472</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>125.9891391224254</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651899399376</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>73.79613500139686</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25628,22 +25628,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F41" t="n">
-        <v>66.85147809014498</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>50.19399978889123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>66.85147809014566</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>82.88340114373835</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>825569.7434077729</v>
+        <v>825569.7434077726</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>699666.8442360926</v>
+        <v>699666.8442360925</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>720978.7510286177</v>
+        <v>720978.7510286178</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720978.7510286178</v>
+        <v>720978.7510286177</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777914.1529328722</v>
+        <v>777914.1529328721</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>724724.2519826306</v>
+        <v>724724.2519826305</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>696384.8879094826</v>
+      </c>
+      <c r="C2" t="n">
         <v>696384.8879094827</v>
       </c>
-      <c r="C2" t="n">
-        <v>696384.8879094826</v>
-      </c>
       <c r="D2" t="n">
-        <v>696400.6423054776</v>
+        <v>696400.6423054779</v>
       </c>
       <c r="E2" t="n">
-        <v>649851.3584063665</v>
+        <v>649851.3584063664</v>
       </c>
       <c r="F2" t="n">
-        <v>649851.3584063667</v>
+        <v>649851.3584063663</v>
       </c>
       <c r="G2" t="n">
         <v>669979.2703770841</v>
       </c>
       <c r="H2" t="n">
-        <v>669979.2703770839</v>
+        <v>669979.2703770841</v>
       </c>
       <c r="I2" t="n">
         <v>697885.5043846404</v>
       </c>
       <c r="J2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="K2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="L2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846415</v>
+        <v>697885.5043846418</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="O2" t="n">
+        <v>673516.6879447636</v>
+      </c>
+      <c r="P2" t="n">
         <v>673516.6879447638</v>
-      </c>
-      <c r="P2" t="n">
-        <v>673516.6879447635</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264787</v>
+        <v>49603.99004264847</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112469</v>
+        <v>1114814.601112468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899446</v>
+        <v>16999.20777899462</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716339</v>
+        <v>28261.85161716345</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225421</v>
+        <v>40637.45238225412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899427</v>
+        <v>16999.20777899431</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>429644.5458935883</v>
+        <v>429644.5458935881</v>
       </c>
       <c r="E4" t="n">
         <v>59435.44534362314</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362316</v>
       </c>
       <c r="G4" t="n">
-        <v>72844.10175942461</v>
+        <v>72844.10175942464</v>
       </c>
       <c r="H4" t="n">
-        <v>72844.10175942467</v>
+        <v>72844.10175942464</v>
       </c>
       <c r="I4" t="n">
-        <v>88805.64290420644</v>
+        <v>88805.64290420647</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936338</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936331</v>
+        <v>86909.55729936333</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="O4" t="n">
-        <v>75210.52190087916</v>
+        <v>75210.5219008791</v>
       </c>
       <c r="P4" t="n">
-        <v>75210.52190087916</v>
+        <v>75210.52190087913</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253467</v>
+        <v>34890.26850253468</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
         <v>80041.87632024712</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024712</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="I5" t="n">
         <v>86503.64721582714</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215732.6676370898</v>
+        <v>215728.2540592216</v>
       </c>
       <c r="C6" t="n">
-        <v>215732.6676370897</v>
+        <v>215728.2540592217</v>
       </c>
       <c r="D6" t="n">
-        <v>182261.8378667067</v>
+        <v>182257.4706252973</v>
       </c>
       <c r="E6" t="n">
-        <v>-602654.181371507</v>
+        <v>-602795.4582714426</v>
       </c>
       <c r="F6" t="n">
-        <v>512160.4197409617</v>
+        <v>512019.1428410253</v>
       </c>
       <c r="G6" t="n">
-        <v>500094.0845184179</v>
+        <v>500012.007359572</v>
       </c>
       <c r="H6" t="n">
-        <v>517093.2922974122</v>
+        <v>517011.2151385667</v>
       </c>
       <c r="I6" t="n">
-        <v>494314.3626474434</v>
+        <v>494314.3626474433</v>
       </c>
       <c r="J6" t="n">
-        <v>480960.553028217</v>
+        <v>480960.5530282173</v>
       </c>
       <c r="K6" t="n">
-        <v>521598.0054104714</v>
+        <v>521598.0054104715</v>
       </c>
       <c r="L6" t="n">
-        <v>504598.7976314772</v>
+        <v>504598.7976314771</v>
       </c>
       <c r="M6" t="n">
-        <v>321624.8521324979</v>
+        <v>321624.8521324983</v>
       </c>
       <c r="N6" t="n">
-        <v>523792.9521252215</v>
+        <v>523792.9521252214</v>
       </c>
       <c r="O6" t="n">
-        <v>517950.3384995579</v>
+        <v>517878.6655100287</v>
       </c>
       <c r="P6" t="n">
-        <v>517950.3384995576</v>
+        <v>517878.6655100289</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.22414634233546</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.22414634233546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.22414634233546</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="G2" t="n">
-        <v>68.2241463423354</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.2241463423354</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.22414634233537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076451</v>
+        <v>57.92057351076521</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743329</v>
+        <v>937.6805819743328</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374286</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484974</v>
+        <v>25.72612689484966</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374284</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951238</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076451</v>
+        <v>57.92057351076521</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082534</v>
+        <v>1031.856127082533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720398</v>
+        <v>106.27912657204</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428177</v>
+        <v>76.65587923428166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374286</v>
+        <v>21.24900972374289</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484974</v>
+        <v>25.72612689484966</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507124</v>
+        <v>201.4990738507123</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098108</v>
+        <v>135.2425723098106</v>
       </c>
       <c r="S8" t="n">
-        <v>203.714079359606</v>
+        <v>203.7140793596059</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27947,10 +27947,10 @@
         <v>137.218933288112</v>
       </c>
       <c r="H9" t="n">
-        <v>111.0322262848861</v>
+        <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.1072318885896</v>
+        <v>85.10723188858954</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643198</v>
+        <v>92.42270548643188</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659313</v>
@@ -28026,16 +28026,16 @@
         <v>167.8865324226197</v>
       </c>
       <c r="H10" t="n">
-        <v>161.2985442960703</v>
+        <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
         <v>152.3094707112975</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284957</v>
+        <v>85.97478175284948</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657842</v>
+        <v>10.13465691657828</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156894</v>
+        <v>77.41603665156885</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348049</v>
+        <v>172.5970773348048</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005766</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4993161569691</v>
+        <v>227.499316156969</v>
       </c>
       <c r="U10" t="n">
         <v>286.3133322508997</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>28.91388186835448</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>28.91388186835417</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="S19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>28.91388186835403</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.91388186835496</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="S22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.2241463423354</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>28.91388186835371</v>
       </c>
       <c r="K25" t="n">
-        <v>28.91388186835533</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233537</v>
+        <v>68.22414634233546</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.47778196371112</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>46.72521440565379</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371107</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810494</v>
+        <v>45.39291458738793</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810481</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810481</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U43" t="n">
-        <v>40.54593709771308</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325519</v>
+        <v>40.54593709771422</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325519</v>
+        <v>40.54593709771424</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X46" t="n">
-        <v>40.54593709771316</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325519</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.23284652667644</v>
+        <v>0.2328465266764429</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325092</v>
+        <v>2.384639491325121</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693464</v>
+        <v>8.976815719693573</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350452</v>
+        <v>19.76255789350476</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771824</v>
+        <v>29.61895136771859</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849234</v>
+        <v>36.74492825849279</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727448</v>
+        <v>40.88581267727498</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119392</v>
+        <v>41.54738787119442</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155507</v>
+        <v>39.23202022155554</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423045</v>
+        <v>33.48362159423085</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763043</v>
+        <v>25.14480535763074</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133894</v>
+        <v>14.62654563133912</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639383</v>
+        <v>5.305990226639447</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526117</v>
+        <v>1.019285670526129</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0186277221341152</v>
+        <v>0.01862772213411543</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986255</v>
+        <v>0.1245838750986271</v>
       </c>
       <c r="H9" t="n">
-        <v>1.20321795161041</v>
+        <v>1.203217951610425</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825486</v>
+        <v>4.289400962825537</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429602</v>
+        <v>11.77044409429617</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590393</v>
+        <v>20.11756372590418</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104148</v>
+        <v>27.05054709104181</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336665</v>
+        <v>31.56671256336703</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523419</v>
+        <v>32.40218951523459</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489096</v>
+        <v>29.64167312489132</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878929</v>
+        <v>23.79005593878959</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223859</v>
+        <v>15.90302237223878</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211157</v>
+        <v>7.735128666211251</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906486</v>
+        <v>2.314090837906514</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282317</v>
+        <v>0.5021604439282378</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572277999</v>
+        <v>0.0081963075722781</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390835</v>
+        <v>0.1044469358390848</v>
       </c>
       <c r="H10" t="n">
-        <v>0.928628211369307</v>
+        <v>0.9286282113693182</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960804</v>
+        <v>3.141004215960842</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823204</v>
+        <v>7.384398363823294</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930443</v>
+        <v>12.13483490930458</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647611</v>
+        <v>15.5284108064763</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157561</v>
+        <v>16.37253195157581</v>
       </c>
       <c r="N10" t="n">
-        <v>15.9832297361754</v>
+        <v>15.98322973617559</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205519</v>
+        <v>14.76309962205537</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093788</v>
+        <v>12.63238213093803</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.74600660012544</v>
+        <v>8.746006600125547</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364609</v>
+        <v>4.696314042364666</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395664</v>
+        <v>1.820225236395686</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124477</v>
+        <v>0.4462732713124531</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222744</v>
+        <v>0.005697105591222814</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34463,7 +34463,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>234.9615414126741</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>263.8709530134646</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554017</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>74.49229848142025</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>348.6712540385531</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>648.9788230057842</v>
+        <v>738.3112005318924</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>74.49229848141994</v>
       </c>
       <c r="K25" t="n">
-        <v>234.9615414126749</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>685.7637716667626</v>
       </c>
       <c r="Q26" t="n">
-        <v>388.3851849405709</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>504.9282531982362</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>673.5971625859141</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>742.5368464408992</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>416.1845670468734</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129124</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923321</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38111,7 +38111,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
